--- a/src/test/java/org/study/data/TestData.xlsx
+++ b/src/test/java/org/study/data/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">sunil@123</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
   </si>
 </sst>
 </file>
@@ -322,8 +325,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.03"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="1" width="26.98" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="1" width="22.03" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -400,8 +403,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.61"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="1" width="15.97" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="1" width="17.61" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +418,7 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
